--- a/data/input_data/InitialMeanVectors.xlsx
+++ b/data/input_data/InitialMeanVectors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadia/Documents/GitHub/smart-match/data/input_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AFB1B4-61DC-C349-8AAF-86C2D117BAEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="10515" windowHeight="9780"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18920" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1071,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1109,6 +1115,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1157,7 +1166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,9 +1199,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,6 +1251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1400,27 +1443,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1481,12 +1526,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1513,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1719,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1737,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1833,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1929,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +2038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2025,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2121,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2153,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2185,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2281,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2351,249 +2396,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HY85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="106.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="29" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="55" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="35" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="40" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="18.5" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="19" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="47.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="44" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="44" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="18" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="28" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="45.5" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="50" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="31" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="44" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="40" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="193" max="193" width="35" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="43.5" bestFit="1" customWidth="1"/>
     <col min="213" max="213" width="19" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="215" max="215" width="19" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="35" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="32.5" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="48" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -3294,422 +3338,422 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:233" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>112</v>
       </c>
@@ -3720,20 +3764,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>347</v>
       </c>
@@ -3741,37 +3785,37 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3779,152 +3823,152 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -3932,7 +3976,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -3940,7 +3984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -3948,967 +3992,967 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>344</v>
       </c>
